--- a/4/6/Tipo de cambio 1960 a 2021 - Mensual.xlsx
+++ b/4/6/Tipo de cambio 1960 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="742">
   <si>
     <t>Serie</t>
   </si>
@@ -2237,6 +2237,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -2594,7 +2597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B740"/>
+  <dimension ref="A1:B741"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8517,7 +8520,15 @@
         <v>740</v>
       </c>
       <c r="B740">
-        <v>742.8</v>
+        <v>750.4400000000001</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" t="s">
+        <v>741</v>
+      </c>
+      <c r="B741">
+        <v>774.61</v>
       </c>
     </row>
   </sheetData>

--- a/4/6/Tipo de cambio 1960 a 2021 - Mensual.xlsx
+++ b/4/6/Tipo de cambio 1960 a 2021 - Mensual.xlsx
@@ -8528,7 +8528,7 @@
         <v>741</v>
       </c>
       <c r="B741">
-        <v>774.61</v>
+        <v>779.83</v>
       </c>
     </row>
   </sheetData>

--- a/4/6/Tipo de cambio 1960 a 2021 - Mensual.xlsx
+++ b/4/6/Tipo de cambio 1960 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="743">
   <si>
     <t>Serie</t>
   </si>
@@ -2240,6 +2240,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -2597,7 +2600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B741"/>
+  <dimension ref="A1:B742"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8531,6 +8534,14 @@
         <v>779.83</v>
       </c>
     </row>
+    <row r="742" spans="1:2">
+      <c r="A742" t="s">
+        <v>742</v>
+      </c>
+      <c r="B742">
+        <v>778.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/6/Tipo de cambio 1960 a 2021 - Mensual.xlsx
+++ b/4/6/Tipo de cambio 1960 a 2021 - Mensual.xlsx
@@ -8539,7 +8539,7 @@
         <v>742</v>
       </c>
       <c r="B742">
-        <v>778.33</v>
+        <v>783.63</v>
       </c>
     </row>
   </sheetData>

--- a/4/6/Tipo de cambio 1960 a 2021 - Mensual.xlsx
+++ b/4/6/Tipo de cambio 1960 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="744">
   <si>
     <t>Serie</t>
   </si>
@@ -2243,6 +2243,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -2600,7 +2603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B742"/>
+  <dimension ref="A1:B743"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8542,6 +8545,14 @@
         <v>783.63</v>
       </c>
     </row>
+    <row r="743" spans="1:2">
+      <c r="A743" t="s">
+        <v>743</v>
+      </c>
+      <c r="B743">
+        <v>814.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/6/Tipo de cambio 1960 a 2021 - Mensual.xlsx
+++ b/4/6/Tipo de cambio 1960 a 2021 - Mensual.xlsx
@@ -8550,7 +8550,7 @@
         <v>743</v>
       </c>
       <c r="B743">
-        <v>814.7</v>
+        <v>813.95</v>
       </c>
     </row>
   </sheetData>
